--- a/source_data/ISO_Countries/Countries_and_ISOs_April_21_2015.xlsx
+++ b/source_data/ISO_Countries/Countries_and_ISOs_April_21_2015.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="923">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1306" uniqueCount="933">
   <si>
     <t>Andorra</t>
   </si>
@@ -2590,24 +2590,9 @@
     <t>Central African Republic (the);Central African Republic;The Central African Republic</t>
   </si>
   <si>
-    <t>Cocos (Keeling) Islands (the); The Cocos (Keeling) Islands; The Cocos Keeling Islands;Cocos Islands and Keeling Islands;The Cocos Islands and Keeling Islands</t>
-  </si>
-  <si>
     <t>Comoros (the);Comoros;The Comoros</t>
   </si>
   <si>
-    <t>Congo (the Democratic Republic of the);Congo (the Republic of the);The Democratic Republic of the Congo;The Republic of the Congo</t>
-  </si>
-  <si>
-    <t>Cook Islands (the);The Cook Islands</t>
-  </si>
-  <si>
-    <t>Côte d'Ivoire;C\xf4te d\u2019Ivoire</t>
-  </si>
-  <si>
-    <t>Falkland Islands (the) [Malvinas];Falkland Islands (the Malvinas);Falkland Islands (Islas Malvinas);The Falkland Islands;Islas Malvinas;The Islas Malvinas;The Malvinas</t>
-  </si>
-  <si>
     <t>Faroe Islands (the); The Faroe Islands;Faroe Islands</t>
   </si>
   <si>
@@ -2629,9 +2614,6 @@
     <t>Korea (the Republic of);South Korea;Republic of Korea;The Republic of Korea</t>
   </si>
   <si>
-    <t>Lao People's Democratic Republic (the);The Lao People's Democratic Republic;Laos</t>
-  </si>
-  <si>
     <t>Macedonia (the former Yugoslav Republic of);Macedonia;The former Yugoslav Republic of Macedonia</t>
   </si>
   <si>
@@ -2641,9 +2623,6 @@
     <t>Micronesia (Federated States of);Micronesia;Federated States of Micronesia;The Federated States of Micronesia</t>
   </si>
   <si>
-    <t>Moldova (the Republic of);Moldova;The Republic of Moldova</t>
-  </si>
-  <si>
     <t>Netherlands (the); Netherlands;The Netherlands</t>
   </si>
   <si>
@@ -2662,27 +2641,12 @@
     <t>Philippines (the);The Philippines;Philippines</t>
   </si>
   <si>
-    <t>Russian Federation (the);Russian Federation;The Russian Federation</t>
-  </si>
-  <si>
-    <t>Saint Helena, Ascension and Tristan da Cunha;Saint Helena;St Helena;St. Helena</t>
-  </si>
-  <si>
-    <t>Saint Kitts and Nevis; St. Kitts and Nevis;St Kitts and Nevis</t>
-  </si>
-  <si>
     <t>Saint Lucia;St. Lucia;St Lucia</t>
   </si>
   <si>
     <t>Saint Pierre and Miquelon;St Pierre and Miquelon;St. Pierre and Miquelon</t>
   </si>
   <si>
-    <t>Saint Vincent and the Grenadines;St. Vincent and the Grenadines;St Vincent and Grenadines</t>
-  </si>
-  <si>
-    <t>Sao Tome and Principe;S\xe3o Tom\xe9 and Pr\xedncipe</t>
-  </si>
-  <si>
     <t>Sint Maarten (Dutch part);Saint Martin (Dutch part);Sint Maarten;St. Maarten;St Maarten</t>
   </si>
   <si>
@@ -2692,9 +2656,6 @@
     <t>Sudan (the);Sudan;The Sudan</t>
   </si>
   <si>
-    <t>Syrian Arab Republic;The Syrian Arab Republic</t>
-  </si>
-  <si>
     <t>Taiwan (Province of China);Taiwan;The Province of China Taiwan</t>
   </si>
   <si>
@@ -2776,9 +2737,6 @@
     <t>Wake Island;The Wake Island;Wake Island (the)</t>
   </si>
   <si>
-    <t>West Bank and the Gaza Strip;The West Bank and the Gaza Strip;The West Bank and Gaza Strip; West Bank and Gaza Strip;West Bank and the Gaza Strip (the);West Bank and Gaza Strip (the)</t>
-  </si>
-  <si>
     <t>Western Sahara; The Western Sahara;Western Sahara (the)</t>
   </si>
   <si>
@@ -2788,7 +2746,79 @@
     <t>Bolivia;Bolivia (Plurinational State of);Plurinational State of Bolivia;The Plurinational State of Bolivia</t>
   </si>
   <si>
-    <t>Congo (the);The Congo;Congo</t>
+    <t>Russian Federation (the);Russian Federation;The Russian Federation;Russia</t>
+  </si>
+  <si>
+    <t>Cape Verde;the Republic of Cabo Verde;Republic of Cabo Verde;Republic of Cabo Verde (the)</t>
+  </si>
+  <si>
+    <t>Cook Islands (the);The Cook Islands;Cook Islands</t>
+  </si>
+  <si>
+    <t>Dijibouti</t>
+  </si>
+  <si>
+    <t>Falkland Islands (the) [Malvinas];Falkland Islands (the Malvinas);Falkland Islands (Islas Malvinas);The Falkland Islands;Islas Malvinas;The Islas Malvinas;The Malvinas;Falkland Islands</t>
+  </si>
+  <si>
+    <t>Kiritabi</t>
+  </si>
+  <si>
+    <t>Lao People's Democratic Republic (the);The Lao People's Democratic Republic;Laos;Lao PDR</t>
+  </si>
+  <si>
+    <t>Maritius</t>
+  </si>
+  <si>
+    <t>Moldova (the Republic of);Moldova;The Republic of Moldova;Moldova, Republic of</t>
+  </si>
+  <si>
+    <t>Papau N. Guinea</t>
+  </si>
+  <si>
+    <t>Pitcairn Islands</t>
+  </si>
+  <si>
+    <t>Sao Tome and Principe;S\xe3o Tom\xe9 and Pr\xedncipe;Sao Tome &amp; Principe</t>
+  </si>
+  <si>
+    <t>Saint Kitts and Nevis; St. Kitts and Nevis;St Kitts and Nevis;St Kitts &amp; Nevis</t>
+  </si>
+  <si>
+    <t>Saint Vincent and the Grenadines;St. Vincent and the Grenadines;St Vincent and Grenadines;St Vincent and the Grenadines</t>
+  </si>
+  <si>
+    <t>Sudan South</t>
+  </si>
+  <si>
+    <t>Sudan North</t>
+  </si>
+  <si>
+    <t>Vanautu</t>
+  </si>
+  <si>
+    <t>Syrian Arab Republic;The Syrian Arab Republic;Syria</t>
+  </si>
+  <si>
+    <t>West Bank and the Gaza Strip;The West Bank and the Gaza Strip;The West Bank and Gaza Strip; West Bank and Gaza Strip;West Bank and the Gaza Strip (the);West Bank and Gaza Strip (the);West Bank &amp; Gaza Strip</t>
+  </si>
+  <si>
+    <t>Guinea Bissa;Guinea Bissau</t>
+  </si>
+  <si>
+    <t>Cocos (Keeling) Islands (the); The Cocos (Keeling) Islands; The Cocos Keeling; Islands;Cocos Islands and Keeling Islands;The Cocos Islands and Keeling Islands;Cocos Islands;Keeling Islands;Cocos (Keeling) Islands</t>
+  </si>
+  <si>
+    <t>Congo (the);The Congo;Congo;Congo,</t>
+  </si>
+  <si>
+    <t>Congo (the Democratic Republic of the);Congo (the Republic of the);The Democratic Republic of the Congo;The Republic of the Congo;Democratic Republic of the Congo;Congo, Democratic Republic of;Congo—Republic of the</t>
+  </si>
+  <si>
+    <t>Saint Helena, Ascension and Tristan da Cunha;Saint Helena;St Helena;St. Helena;Saint Helena, Ascension, and Tristan da Cunha (formerly called Saint Helena)</t>
+  </si>
+  <si>
+    <t>Côte d'Ivoire;C\xf4te d\u2019Ivoire;Côte d’Ivoire</t>
   </si>
 </sst>
 </file>
@@ -2846,8 +2876,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="53">
+  <cellStyleXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2912,7 +2948,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="53">
+  <cellStyles count="59">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2939,6 +2975,9 @@
     <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2965,6 +3004,9 @@
     <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3296,8 +3338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E285"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="A255" workbookViewId="0">
+      <selection activeCell="B270" sqref="B270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5584,7 +5626,7 @@
       <c r="C135" s="1"/>
       <c r="D135" s="4"/>
       <c r="E135" t="s">
-        <v>901</v>
+        <v>888</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -5631,7 +5673,7 @@
       <c r="C138" s="1"/>
       <c r="D138" s="4"/>
       <c r="E138" t="s">
-        <v>901</v>
+        <v>888</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -7997,7 +8039,7 @@
       <c r="C278" s="1"/>
       <c r="D278" s="4"/>
       <c r="E278" t="s">
-        <v>901</v>
+        <v>888</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -8132,10 +8174,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B74"/>
+  <dimension ref="A1:B84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8165,7 +8207,7 @@
         <v>58</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>921</v>
+        <v>907</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30">
@@ -8181,7 +8223,7 @@
         <v>60</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>902</v>
+        <v>889</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="45">
@@ -8216,12 +8258,12 @@
         <v>855</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="60">
+    <row r="10" spans="1:2" ht="75">
       <c r="A10" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>856</v>
+        <v>928</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -8229,15 +8271,15 @@
         <v>183</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="45">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="90">
       <c r="A12" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>858</v>
+        <v>930</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -8245,23 +8287,23 @@
         <v>84</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="30">
       <c r="A14" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="30">
       <c r="A15" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>860</v>
+        <v>932</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="30">
@@ -8269,7 +8311,7 @@
         <v>112</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>903</v>
+        <v>890</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="30">
@@ -8277,15 +8319,15 @@
         <v>122</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="60">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="75">
       <c r="A18" s="1" t="s">
         <v>222</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>861</v>
+        <v>912</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="30">
@@ -8293,7 +8335,7 @@
         <v>225</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -8301,7 +8343,7 @@
         <v>785</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>905</v>
+        <v>892</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="45">
@@ -8309,7 +8351,7 @@
         <v>243</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -8317,7 +8359,7 @@
         <v>249</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -8325,7 +8367,7 @@
         <v>776</v>
       </c>
       <c r="B23" t="s">
-        <v>906</v>
+        <v>893</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="60">
@@ -8333,7 +8375,7 @@
         <v>295</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>907</v>
+        <v>894</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -8341,7 +8383,7 @@
         <v>298</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="30">
@@ -8349,7 +8391,7 @@
         <v>319</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>866</v>
+        <v>861</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="60">
@@ -8357,7 +8399,7 @@
         <v>358</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="30">
@@ -8365,15 +8407,15 @@
         <v>361</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="30">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="45">
       <c r="A29" s="1" t="s">
         <v>370</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>869</v>
+        <v>914</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="45">
@@ -8381,7 +8423,7 @@
         <v>400</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="30">
@@ -8389,7 +8431,7 @@
         <v>421</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>871</v>
+        <v>865</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="60">
@@ -8397,7 +8439,7 @@
         <v>439</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="30">
@@ -8405,7 +8447,7 @@
         <v>442</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>873</v>
+        <v>916</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="30">
@@ -8413,7 +8455,7 @@
         <v>475</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -8421,7 +8463,7 @@
         <v>755</v>
       </c>
       <c r="B35" t="s">
-        <v>908</v>
+        <v>895</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -8429,7 +8471,7 @@
         <v>805</v>
       </c>
       <c r="B36" t="s">
-        <v>909</v>
+        <v>896</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -8437,7 +8479,7 @@
         <v>487</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="30">
@@ -8445,7 +8487,7 @@
         <v>499</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -8453,7 +8495,7 @@
         <v>808</v>
       </c>
       <c r="B39" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="30">
@@ -8461,7 +8503,7 @@
         <v>514</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>878</v>
+        <v>871</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -8469,7 +8511,7 @@
         <v>814</v>
       </c>
       <c r="B41" t="s">
-        <v>910</v>
+        <v>897</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -8477,7 +8519,7 @@
         <v>529</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="30">
@@ -8485,7 +8527,7 @@
         <v>553</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>880</v>
+        <v>908</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -8493,15 +8535,15 @@
         <v>52</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="30">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="60">
       <c r="A45" s="1" t="s">
         <v>560</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>881</v>
+        <v>931</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="30">
@@ -8509,7 +8551,7 @@
         <v>563</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>882</v>
+        <v>920</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -8517,7 +8559,7 @@
         <v>566</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>883</v>
+        <v>873</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -8525,7 +8567,7 @@
         <v>569</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>888</v>
+        <v>876</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="30">
@@ -8533,15 +8575,15 @@
         <v>572</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="30">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="45">
       <c r="A50" s="1" t="s">
         <v>575</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>885</v>
+        <v>921</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="30">
@@ -8549,7 +8591,7 @@
         <v>584</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>886</v>
+        <v>919</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="30">
@@ -8557,7 +8599,7 @@
         <v>605</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>887</v>
+        <v>875</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="30">
@@ -8565,7 +8607,7 @@
         <v>614</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>912</v>
+        <v>899</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="60">
@@ -8573,7 +8615,7 @@
         <v>623</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>913</v>
+        <v>900</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -8581,15 +8623,15 @@
         <v>635</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="30">
       <c r="A56" s="1" t="s">
         <v>651</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>890</v>
+        <v>925</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="30">
@@ -8597,7 +8639,7 @@
         <v>654</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>891</v>
+        <v>878</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="45">
@@ -8605,7 +8647,7 @@
         <v>660</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>892</v>
+        <v>879</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="30">
@@ -8613,7 +8655,7 @@
         <v>690</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>893</v>
+        <v>880</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="30">
@@ -8621,7 +8663,7 @@
         <v>3</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="60">
@@ -8629,7 +8671,7 @@
         <v>703</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>914</v>
+        <v>901</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="45">
@@ -8637,7 +8679,7 @@
         <v>706</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>895</v>
+        <v>882</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -8645,7 +8687,7 @@
         <v>811</v>
       </c>
       <c r="B63" t="s">
-        <v>915</v>
+        <v>902</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="45">
@@ -8653,7 +8695,7 @@
         <v>709</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>896</v>
+        <v>883</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="90">
@@ -8661,7 +8703,7 @@
         <v>730</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>916</v>
+        <v>903</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -8669,7 +8711,7 @@
         <v>822</v>
       </c>
       <c r="B66" t="s">
-        <v>897</v>
+        <v>884</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="60">
@@ -8677,7 +8719,7 @@
         <v>721</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>898</v>
+        <v>885</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -8685,7 +8727,7 @@
         <v>724</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>899</v>
+        <v>886</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -8693,7 +8735,7 @@
         <v>828</v>
       </c>
       <c r="B69" t="s">
-        <v>900</v>
+        <v>887</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -8701,7 +8743,7 @@
         <v>831</v>
       </c>
       <c r="B70" t="s">
-        <v>917</v>
+        <v>904</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -8717,7 +8759,7 @@
         <v>844</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>918</v>
+        <v>926</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="30">
@@ -8725,7 +8767,7 @@
         <v>735</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>919</v>
+        <v>905</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -8733,7 +8775,87 @@
         <v>834</v>
       </c>
       <c r="B74" t="s">
-        <v>920</v>
+        <v>906</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B75" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B76" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B77" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B78" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B79" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="B80" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="B81" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="B82" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="B83" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="B84" t="s">
+        <v>924</v>
       </c>
     </row>
   </sheetData>

--- a/source_data/ISO_Countries/Countries_and_ISOs_April_21_2015.xlsx
+++ b/source_data/ISO_Countries/Countries_and_ISOs_April_21_2015.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1306" uniqueCount="933">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1308" uniqueCount="934">
   <si>
     <t>Andorra</t>
   </si>
@@ -2782,12 +2782,6 @@
     <t>Sao Tome and Principe;S\xe3o Tom\xe9 and Pr\xedncipe;Sao Tome &amp; Principe</t>
   </si>
   <si>
-    <t>Saint Kitts and Nevis; St. Kitts and Nevis;St Kitts and Nevis;St Kitts &amp; Nevis</t>
-  </si>
-  <si>
-    <t>Saint Vincent and the Grenadines;St. Vincent and the Grenadines;St Vincent and Grenadines;St Vincent and the Grenadines</t>
-  </si>
-  <si>
     <t>Sudan South</t>
   </si>
   <si>
@@ -2809,16 +2803,25 @@
     <t>Cocos (Keeling) Islands (the); The Cocos (Keeling) Islands; The Cocos Keeling; Islands;Cocos Islands and Keeling Islands;The Cocos Islands and Keeling Islands;Cocos Islands;Keeling Islands;Cocos (Keeling) Islands</t>
   </si>
   <si>
-    <t>Congo (the);The Congo;Congo;Congo,</t>
-  </si>
-  <si>
-    <t>Congo (the Democratic Republic of the);Congo (the Republic of the);The Democratic Republic of the Congo;The Republic of the Congo;Democratic Republic of the Congo;Congo, Democratic Republic of;Congo—Republic of the</t>
-  </si>
-  <si>
     <t>Saint Helena, Ascension and Tristan da Cunha;Saint Helena;St Helena;St. Helena;Saint Helena, Ascension, and Tristan da Cunha (formerly called Saint Helena)</t>
   </si>
   <si>
     <t>Côte d'Ivoire;C\xf4te d\u2019Ivoire;Côte d’Ivoire</t>
+  </si>
+  <si>
+    <t>Congo (the Democratic Republic of the);Congo (the Republic of the);The Democratic Republic of the Congo;The Republic of the Congo;Democratic Republic of the Congo;Congo, Democratic Republic of;Congo—Republic of the;Republic of the Congo</t>
+  </si>
+  <si>
+    <t>Saint Kitts and Nevis; St. Kitts and Nevis;St Kitts and Nevis;St Kitts &amp; Nevis;Saint Kitts</t>
+  </si>
+  <si>
+    <t>Saint Vincent and the Grenadines;St. Vincent and the Grenadines;St Vincent and Grenadines;St Vincent and the Grenadines;Saint Vincent</t>
+  </si>
+  <si>
+    <t>Trinidad &amp; Tobago</t>
+  </si>
+  <si>
+    <t>Congo (the);The Congo;Congo,;Congo;</t>
   </si>
 </sst>
 </file>
@@ -8174,10 +8177,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B84"/>
+  <dimension ref="A1:B85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8263,7 +8266,7 @@
         <v>78</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -8274,12 +8277,12 @@
         <v>856</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="90">
+    <row r="12" spans="1:2" ht="105">
       <c r="A12" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -8287,7 +8290,7 @@
         <v>84</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>929</v>
+        <v>933</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="30">
@@ -8303,7 +8306,7 @@
         <v>88</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="30">
@@ -8543,7 +8546,7 @@
         <v>560</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="30">
@@ -8551,7 +8554,7 @@
         <v>563</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>920</v>
+        <v>930</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -8578,12 +8581,12 @@
         <v>874</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="45">
+    <row r="50" spans="1:2" ht="60">
       <c r="A50" s="1" t="s">
         <v>575</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>921</v>
+        <v>931</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="30">
@@ -8631,7 +8634,7 @@
         <v>651</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="30">
@@ -8759,7 +8762,7 @@
         <v>844</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="30">
@@ -8799,7 +8802,7 @@
         <v>286</v>
       </c>
       <c r="B77" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -8839,7 +8842,7 @@
         <v>626</v>
       </c>
       <c r="B82" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -8847,7 +8850,7 @@
         <v>635</v>
       </c>
       <c r="B83" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -8855,7 +8858,15 @@
         <v>718</v>
       </c>
       <c r="B84" t="s">
-        <v>924</v>
+        <v>922</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="B85" t="s">
+        <v>932</v>
       </c>
     </row>
   </sheetData>

--- a/source_data/ISO_Countries/Countries_and_ISOs_April_21_2015.xlsx
+++ b/source_data/ISO_Countries/Countries_and_ISOs_April_21_2015.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="0" windowWidth="14900" windowHeight="15900" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="40" yWindow="0" windowWidth="14900" windowHeight="15900" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Countries_and_ISOs_April_21_201" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1308" uniqueCount="934">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="938">
   <si>
     <t>Andorra</t>
   </si>
@@ -1999,9 +1999,6 @@
     <t>TJK</t>
   </si>
   <si>
-    <t>Tanzania, United Republic of</t>
-  </si>
-  <si>
     <t>TZ</t>
   </si>
   <si>
@@ -2575,9 +2572,6 @@
     <t>Bonaire, Sint Eustatius and Saba;Bonaire;Sint Eustatius;Saba</t>
   </si>
   <si>
-    <t>British Indian Ocean Territory;The British Indian Ocean Territory;British Indian Ocean Territory (the)</t>
-  </si>
-  <si>
     <t>British Virgin Islands;Virgin Islands (British);The British Virgin Islands;British Virgin Islands (the)</t>
   </si>
   <si>
@@ -2659,9 +2653,6 @@
     <t>Taiwan (Province of China);Taiwan;The Province of China Taiwan</t>
   </si>
   <si>
-    <t>Tanzania, United Republic of;Tanzania;United Republic of Tanzania;The United Republic of Tanzania</t>
-  </si>
-  <si>
     <t>Turks and Caicos Islands (the);The Turks and Caicos Islands;Turks and Caicos Islands</t>
   </si>
   <si>
@@ -2704,9 +2695,6 @@
     <t>German Democratic Republic;The German Democratic Republic</t>
   </si>
   <si>
-    <t>Heard Island and McDonald Islands;The Heard Island and McDonald Islands;Heard Island and McDonald Islands (the);Heard Island;McDonald Island</t>
-  </si>
-  <si>
     <t>Netherlands Antilles;The Netherlands Antilles;Nertherland Antilles (the)</t>
   </si>
   <si>
@@ -2758,9 +2746,6 @@
     <t>Dijibouti</t>
   </si>
   <si>
-    <t>Falkland Islands (the) [Malvinas];Falkland Islands (the Malvinas);Falkland Islands (Islas Malvinas);The Falkland Islands;Islas Malvinas;The Islas Malvinas;The Malvinas;Falkland Islands</t>
-  </si>
-  <si>
     <t>Kiritabi</t>
   </si>
   <si>
@@ -2779,9 +2764,6 @@
     <t>Pitcairn Islands</t>
   </si>
   <si>
-    <t>Sao Tome and Principe;S\xe3o Tom\xe9 and Pr\xedncipe;Sao Tome &amp; Principe</t>
-  </si>
-  <si>
     <t>Sudan South</t>
   </si>
   <si>
@@ -2803,25 +2785,55 @@
     <t>Cocos (Keeling) Islands (the); The Cocos (Keeling) Islands; The Cocos Keeling; Islands;Cocos Islands and Keeling Islands;The Cocos Islands and Keeling Islands;Cocos Islands;Keeling Islands;Cocos (Keeling) Islands</t>
   </si>
   <si>
-    <t>Saint Helena, Ascension and Tristan da Cunha;Saint Helena;St Helena;St. Helena;Saint Helena, Ascension, and Tristan da Cunha (formerly called Saint Helena)</t>
-  </si>
-  <si>
-    <t>Côte d'Ivoire;C\xf4te d\u2019Ivoire;Côte d’Ivoire</t>
-  </si>
-  <si>
-    <t>Congo (the Democratic Republic of the);Congo (the Republic of the);The Democratic Republic of the Congo;The Republic of the Congo;Democratic Republic of the Congo;Congo, Democratic Republic of;Congo—Republic of the;Republic of the Congo</t>
-  </si>
-  <si>
-    <t>Saint Kitts and Nevis; St. Kitts and Nevis;St Kitts and Nevis;St Kitts &amp; Nevis;Saint Kitts</t>
-  </si>
-  <si>
     <t>Saint Vincent and the Grenadines;St. Vincent and the Grenadines;St Vincent and Grenadines;St Vincent and the Grenadines;Saint Vincent</t>
   </si>
   <si>
     <t>Trinidad &amp; Tobago</t>
   </si>
   <si>
-    <t>Congo (the);The Congo;Congo,;Congo;</t>
+    <t>Congo (the Democratic Republic of the);Congo (the Republic of the);The Democratic Republic of the Congo;The Republic of the Congo;Democratic Republic of the Congo;Congo, Democratic Republic of;Congo—Republic of the;Republic of the Congo;CONGO, DEMOCRATIC REPUBLIC OF THE</t>
+  </si>
+  <si>
+    <t>Congo (the);The Congo;Congo,;Congo;CONGO, REPUBLIC OF THE</t>
+  </si>
+  <si>
+    <t>Heard Island and McDonald Islands;The Heard Island and McDonald Islands;Heard Island and McDonald Islands (the);Heard Island;McDonald Island;HEARD AND MCDONALD ISLANDS</t>
+  </si>
+  <si>
+    <t>Monteserrat</t>
+  </si>
+  <si>
+    <t>ISO3</t>
+  </si>
+  <si>
+    <t>Tanzania, United Republic of;Tanzania;United Republic of Tanzania;The United Republic of Tanzania;</t>
+  </si>
+  <si>
+    <t>WBG</t>
+  </si>
+  <si>
+    <t>British Indian Ocean Territory;The British Indian Ocean Territory;British Indian Ocean Territory (the);British Indian Ocean Territories</t>
+  </si>
+  <si>
+    <t>Falkland Islands (the) [Malvinas];Falkland Islands (the Malvinas);Falkland Islands (Islas Malvinas);The Falkland Islands;Islas Malvinas;The Islas Malvinas;The Malvinas;Falkland Islands;Falkland Islands (Islas Malvinas)</t>
+  </si>
+  <si>
+    <t>Côte d'Ivoire;C\xf4te d\u2019Ivoire;Côte d’Ivoire;Cote d'Ivoire;</t>
+  </si>
+  <si>
+    <t>Saint Helena, Ascension and Tristan da Cunha;Saint Helena;St Helena;St. Helena;Saint Helena, Ascension, and Tristan da Cunha (formerly called Saint Helena);Saint Helena, Ascension and Tristan da Cunha (formerly known as Saint Helena);Saint Helena, Ascension and Tristan da Cunha (formerly called Saint Helena)</t>
+  </si>
+  <si>
+    <t>Saint Kitts and Nevis;St. Kitts and Nevis;St Kitts and Nevis;St Kitts &amp; Nevis;Saint Kitts</t>
+  </si>
+  <si>
+    <t>Sao Tome and Principe;S\xe3o Tom\xe9 and Pr\xedncipe;Sao Tome &amp; Principe;SãO TOMé AND PRíNCIPE</t>
+  </si>
+  <si>
+    <t>KSO</t>
+  </si>
+  <si>
+    <t>KVR</t>
   </si>
 </sst>
 </file>
@@ -2831,7 +2843,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2851,6 +2863,13 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2879,7 +2898,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="59">
+  <cellStyleXfs count="237">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2939,8 +2958,186 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2950,8 +3147,11 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="59">
+  <cellStyles count="237">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2981,6 +3181,95 @@
     <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="236" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -3010,6 +3299,95 @@
     <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="235" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3339,10 +3717,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E285"/>
+  <dimension ref="A1:E284"/>
   <sheetViews>
-    <sheetView topLeftCell="A255" workbookViewId="0">
-      <selection activeCell="B270" sqref="B270"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C138" sqref="C138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3358,16 +3736,16 @@
         <v>30</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3384,7 +3762,7 @@
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3401,7 +3779,7 @@
         <v>248</v>
       </c>
       <c r="E3" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3418,7 +3796,7 @@
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3435,7 +3813,7 @@
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3452,7 +3830,7 @@
         <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3469,7 +3847,7 @@
         <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3486,7 +3864,7 @@
         <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3503,7 +3881,7 @@
         <v>660</v>
       </c>
       <c r="E9" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3520,7 +3898,7 @@
         <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3537,7 +3915,7 @@
         <v>28</v>
       </c>
       <c r="E11" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3554,7 +3932,7 @@
         <v>32</v>
       </c>
       <c r="E12" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3571,7 +3949,7 @@
         <v>51</v>
       </c>
       <c r="E13" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -3588,7 +3966,7 @@
         <v>533</v>
       </c>
       <c r="E14" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -3605,7 +3983,7 @@
         <v>36</v>
       </c>
       <c r="E15" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -3622,7 +4000,7 @@
         <v>40</v>
       </c>
       <c r="E16" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -3639,7 +4017,7 @@
         <v>31</v>
       </c>
       <c r="E17" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -3656,7 +4034,7 @@
         <v>44</v>
       </c>
       <c r="E18" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -3673,7 +4051,7 @@
         <v>48</v>
       </c>
       <c r="E19" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -3690,7 +4068,7 @@
         <v>50</v>
       </c>
       <c r="E20" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -3707,7 +4085,7 @@
         <v>52</v>
       </c>
       <c r="E21" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -3724,7 +4102,7 @@
         <v>112</v>
       </c>
       <c r="E22" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -3741,7 +4119,7 @@
         <v>56</v>
       </c>
       <c r="E23" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -3758,7 +4136,7 @@
         <v>84</v>
       </c>
       <c r="E24" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -3775,7 +4153,7 @@
         <v>204</v>
       </c>
       <c r="E25" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -3792,7 +4170,7 @@
         <v>60</v>
       </c>
       <c r="E26" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -3809,7 +4187,7 @@
         <v>64</v>
       </c>
       <c r="E27" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -3826,7 +4204,7 @@
         <v>68</v>
       </c>
       <c r="E28" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -3843,7 +4221,7 @@
         <v>535</v>
       </c>
       <c r="E29" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -3860,7 +4238,7 @@
         <v>70</v>
       </c>
       <c r="E30" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -3877,7 +4255,7 @@
         <v>72</v>
       </c>
       <c r="E31" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -3894,7 +4272,7 @@
         <v>74</v>
       </c>
       <c r="E32" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -3911,22 +4289,22 @@
         <v>76</v>
       </c>
       <c r="E33" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -3943,7 +4321,7 @@
         <v>86</v>
       </c>
       <c r="E35" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -3960,7 +4338,7 @@
         <v>96</v>
       </c>
       <c r="E36" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -3977,7 +4355,7 @@
         <v>100</v>
       </c>
       <c r="E37" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -3994,24 +4372,24 @@
         <v>854</v>
       </c>
       <c r="E38" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>759</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>760</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>761</v>
       </c>
       <c r="D39" s="4">
         <v>104</v>
       </c>
       <c r="E39" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -4028,24 +4406,24 @@
         <v>108</v>
       </c>
       <c r="E40" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>71</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D41" s="4">
         <v>112</v>
       </c>
       <c r="E41" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -4062,7 +4440,7 @@
         <v>132</v>
       </c>
       <c r="E42" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -4079,7 +4457,7 @@
         <v>116</v>
       </c>
       <c r="E43" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -4096,7 +4474,7 @@
         <v>120</v>
       </c>
       <c r="E44" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -4113,24 +4491,24 @@
         <v>124</v>
       </c>
       <c r="E45" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
+        <v>768</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>769</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>770</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>771</v>
       </c>
       <c r="D46" s="4">
         <v>128</v>
       </c>
       <c r="E46" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -4147,7 +4525,7 @@
         <v>136</v>
       </c>
       <c r="E47" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -4164,7 +4542,7 @@
         <v>140</v>
       </c>
       <c r="E48" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -4181,7 +4559,7 @@
         <v>148</v>
       </c>
       <c r="E49" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -4198,7 +4576,7 @@
         <v>152</v>
       </c>
       <c r="E50" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -4215,7 +4593,7 @@
         <v>156</v>
       </c>
       <c r="E51" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -4232,24 +4610,24 @@
         <v>162</v>
       </c>
       <c r="E52" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
+        <v>763</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>764</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="C53" s="1" t="s">
         <v>765</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>766</v>
       </c>
       <c r="D53" s="4">
         <v>200</v>
       </c>
       <c r="E53" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -4266,7 +4644,7 @@
         <v>166</v>
       </c>
       <c r="E54" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -4283,7 +4661,7 @@
         <v>170</v>
       </c>
       <c r="E55" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -4300,7 +4678,7 @@
         <v>174</v>
       </c>
       <c r="E56" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -4317,7 +4695,7 @@
         <v>180</v>
       </c>
       <c r="E57" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -4334,7 +4712,7 @@
         <v>178</v>
       </c>
       <c r="E58" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -4351,7 +4729,7 @@
         <v>184</v>
       </c>
       <c r="E59" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -4368,7 +4746,7 @@
         <v>188</v>
       </c>
       <c r="E60" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -4385,7 +4763,7 @@
         <v>384</v>
       </c>
       <c r="E61" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -4402,7 +4780,7 @@
         <v>191</v>
       </c>
       <c r="E62" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -4419,7 +4797,7 @@
         <v>192</v>
       </c>
       <c r="E63" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -4436,7 +4814,7 @@
         <v>531</v>
       </c>
       <c r="E64" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -4453,7 +4831,7 @@
         <v>196</v>
       </c>
       <c r="E65" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -4470,22 +4848,22 @@
         <v>203</v>
       </c>
       <c r="E66" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
+        <v>777</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>778</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="C67" s="1" t="s">
         <v>779</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>780</v>
       </c>
       <c r="D67" s="4"/>
       <c r="E67" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -4502,7 +4880,7 @@
         <v>208</v>
       </c>
       <c r="E68" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -4519,7 +4897,7 @@
         <v>262</v>
       </c>
       <c r="E69" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -4536,7 +4914,7 @@
         <v>212</v>
       </c>
       <c r="E70" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -4553,41 +4931,41 @@
         <v>214</v>
       </c>
       <c r="E71" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
+        <v>800</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>801</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="C72" s="1" t="s">
         <v>802</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>803</v>
       </c>
       <c r="D72" s="4">
         <v>216</v>
       </c>
       <c r="E72" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
+        <v>823</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>824</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="C73" s="1" t="s">
         <v>825</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>826</v>
       </c>
       <c r="D73" s="4">
         <v>626</v>
       </c>
       <c r="E73" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -4604,7 +4982,7 @@
         <v>218</v>
       </c>
       <c r="E74" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -4621,7 +4999,7 @@
         <v>818</v>
       </c>
       <c r="E75" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -4638,7 +5016,7 @@
         <v>222</v>
       </c>
       <c r="E76" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -4655,7 +5033,7 @@
         <v>226</v>
       </c>
       <c r="E77" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -4672,7 +5050,7 @@
         <v>232</v>
       </c>
       <c r="E78" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -4689,7 +5067,7 @@
         <v>233</v>
       </c>
       <c r="E79" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -4706,12 +5084,12 @@
         <v>231</v>
       </c>
       <c r="E80" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="1" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>222</v>
@@ -4723,7 +5101,7 @@
         <v>238</v>
       </c>
       <c r="E81" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -4740,7 +5118,7 @@
         <v>234</v>
       </c>
       <c r="E82" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -4757,7 +5135,7 @@
         <v>242</v>
       </c>
       <c r="E83" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -4774,7 +5152,7 @@
         <v>246</v>
       </c>
       <c r="E84" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -4791,37 +5169,37 @@
         <v>250</v>
       </c>
       <c r="E85" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="1" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B86" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="C86" s="1" t="s">
         <v>785</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>786</v>
       </c>
       <c r="D86" s="4"/>
       <c r="E86" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="1" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D87" s="4"/>
       <c r="E87" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -4838,7 +5216,7 @@
         <v>254</v>
       </c>
       <c r="E88" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -4855,7 +5233,7 @@
         <v>258</v>
       </c>
       <c r="E89" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -4872,22 +5250,22 @@
         <v>260</v>
       </c>
       <c r="E90" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
+        <v>780</v>
+      </c>
+      <c r="B91" s="1" t="s">
         <v>781</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>782</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>244</v>
       </c>
       <c r="D91" s="4"/>
       <c r="E91" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -4904,7 +5282,7 @@
         <v>266</v>
       </c>
       <c r="E92" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -4921,7 +5299,7 @@
         <v>270</v>
       </c>
       <c r="E93" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -4938,7 +5316,7 @@
         <v>268</v>
       </c>
       <c r="E94" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -4955,24 +5333,24 @@
         <v>276</v>
       </c>
       <c r="E95" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="s">
+        <v>774</v>
+      </c>
+      <c r="B96" s="1" t="s">
         <v>775</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="C96" s="1" t="s">
         <v>776</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>777</v>
       </c>
       <c r="D96" s="4">
         <v>278</v>
       </c>
       <c r="E96" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -4989,7 +5367,7 @@
         <v>288</v>
       </c>
       <c r="E97" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -5006,22 +5384,22 @@
         <v>292</v>
       </c>
       <c r="E98" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>252</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D99" s="4"/>
       <c r="E99" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -5038,7 +5416,7 @@
         <v>300</v>
       </c>
       <c r="E100" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -5055,7 +5433,7 @@
         <v>304</v>
       </c>
       <c r="E101" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -5072,7 +5450,7 @@
         <v>308</v>
       </c>
       <c r="E102" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -5089,7 +5467,7 @@
         <v>312</v>
       </c>
       <c r="E103" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -5106,7 +5484,7 @@
         <v>316</v>
       </c>
       <c r="E104" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -5123,7 +5501,7 @@
         <v>320</v>
       </c>
       <c r="E105" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -5140,7 +5518,7 @@
         <v>831</v>
       </c>
       <c r="E106" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -5157,7 +5535,7 @@
         <v>324</v>
       </c>
       <c r="E107" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -5174,7 +5552,7 @@
         <v>624</v>
       </c>
       <c r="E108" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -5191,7 +5569,7 @@
         <v>328</v>
       </c>
       <c r="E109" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -5208,7 +5586,7 @@
         <v>332</v>
       </c>
       <c r="E110" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -5225,7 +5603,7 @@
         <v>334</v>
       </c>
       <c r="E111" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -5242,7 +5620,7 @@
         <v>336</v>
       </c>
       <c r="E112" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -5259,7 +5637,7 @@
         <v>340</v>
       </c>
       <c r="E113" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -5276,7 +5654,7 @@
         <v>344</v>
       </c>
       <c r="E114" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -5293,7 +5671,7 @@
         <v>348</v>
       </c>
       <c r="E115" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -5310,7 +5688,7 @@
         <v>352</v>
       </c>
       <c r="E116" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -5327,7 +5705,7 @@
         <v>356</v>
       </c>
       <c r="E117" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -5344,7 +5722,7 @@
         <v>360</v>
       </c>
       <c r="E118" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -5361,7 +5739,7 @@
         <v>364</v>
       </c>
       <c r="E119" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -5378,7 +5756,7 @@
         <v>368</v>
       </c>
       <c r="E120" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -5395,7 +5773,7 @@
         <v>372</v>
       </c>
       <c r="E121" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -5412,7 +5790,7 @@
         <v>833</v>
       </c>
       <c r="E122" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -5429,7 +5807,7 @@
         <v>376</v>
       </c>
       <c r="E123" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -5446,7 +5824,7 @@
         <v>380</v>
       </c>
       <c r="E124" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -5463,7 +5841,7 @@
         <v>388</v>
       </c>
       <c r="E125" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -5480,7 +5858,7 @@
         <v>392</v>
       </c>
       <c r="E126" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -5497,24 +5875,24 @@
         <v>832</v>
       </c>
       <c r="E127" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" t="s">
+        <v>791</v>
+      </c>
+      <c r="B128" s="1" t="s">
         <v>792</v>
       </c>
-      <c r="B128" s="1" t="s">
+      <c r="C128" s="1" t="s">
         <v>793</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>794</v>
       </c>
       <c r="D128" s="4">
         <v>396</v>
       </c>
       <c r="E128" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -5531,7 +5909,7 @@
         <v>400</v>
       </c>
       <c r="E129" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -5548,7 +5926,7 @@
         <v>398</v>
       </c>
       <c r="E130" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -5565,7 +5943,7 @@
         <v>404</v>
       </c>
       <c r="E131" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -5582,7 +5960,7 @@
         <v>296</v>
       </c>
       <c r="E132" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -5599,7 +5977,7 @@
         <v>408</v>
       </c>
       <c r="E133" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -5616,20 +5994,22 @@
         <v>410</v>
       </c>
       <c r="E134" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="1" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>846</v>
-      </c>
-      <c r="C135" s="1"/>
+        <v>845</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>936</v>
+      </c>
       <c r="D135" s="4"/>
       <c r="E135" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -5646,7 +6026,7 @@
         <v>414</v>
       </c>
       <c r="E136" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -5663,20 +6043,22 @@
         <v>417</v>
       </c>
       <c r="E137" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>847</v>
-      </c>
-      <c r="C138" s="1"/>
+        <v>846</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>937</v>
+      </c>
       <c r="D138" s="4"/>
       <c r="E138" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -5693,7 +6075,7 @@
         <v>418</v>
       </c>
       <c r="E139" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -5710,7 +6092,7 @@
         <v>428</v>
       </c>
       <c r="E140" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -5727,7 +6109,7 @@
         <v>422</v>
       </c>
       <c r="E141" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -5744,7 +6126,7 @@
         <v>426</v>
       </c>
       <c r="E142" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -5761,7 +6143,7 @@
         <v>430</v>
       </c>
       <c r="E143" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -5778,7 +6160,7 @@
         <v>434</v>
       </c>
       <c r="E144" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -5795,7 +6177,7 @@
         <v>438</v>
       </c>
       <c r="E145" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -5812,7 +6194,7 @@
         <v>440</v>
       </c>
       <c r="E146" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -5829,7 +6211,7 @@
         <v>442</v>
       </c>
       <c r="E147" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -5846,7 +6228,7 @@
         <v>446</v>
       </c>
       <c r="E148" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -5863,7 +6245,7 @@
         <v>807</v>
       </c>
       <c r="E149" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -5880,7 +6262,7 @@
         <v>450</v>
       </c>
       <c r="E150" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -5897,7 +6279,7 @@
         <v>454</v>
       </c>
       <c r="E151" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -5914,7 +6296,7 @@
         <v>458</v>
       </c>
       <c r="E152" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -5931,7 +6313,7 @@
         <v>462</v>
       </c>
       <c r="E153" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -5948,7 +6330,7 @@
         <v>466</v>
       </c>
       <c r="E154" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -5965,7 +6347,7 @@
         <v>470</v>
       </c>
       <c r="E155" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -5982,7 +6364,7 @@
         <v>584</v>
       </c>
       <c r="E156" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -5999,7 +6381,7 @@
         <v>474</v>
       </c>
       <c r="E157" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -6016,7 +6398,7 @@
         <v>478</v>
       </c>
       <c r="E158" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -6033,7 +6415,7 @@
         <v>480</v>
       </c>
       <c r="E159" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -6050,7 +6432,7 @@
         <v>175</v>
       </c>
       <c r="E160" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -6067,7 +6449,7 @@
         <v>484</v>
       </c>
       <c r="E161" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -6084,24 +6466,24 @@
         <v>583</v>
       </c>
       <c r="E162" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="163" spans="1:5">
       <c r="A163" t="s">
+        <v>794</v>
+      </c>
+      <c r="B163" s="1" t="s">
         <v>795</v>
       </c>
-      <c r="B163" s="1" t="s">
+      <c r="C163" s="1" t="s">
         <v>796</v>
-      </c>
-      <c r="C163" s="1" t="s">
-        <v>797</v>
       </c>
       <c r="D163" s="4">
         <v>488</v>
       </c>
       <c r="E163" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -6118,7 +6500,7 @@
         <v>498</v>
       </c>
       <c r="E164" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -6135,7 +6517,7 @@
         <v>492</v>
       </c>
       <c r="E165" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -6152,7 +6534,7 @@
         <v>496</v>
       </c>
       <c r="E166" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -6169,7 +6551,7 @@
         <v>499</v>
       </c>
       <c r="E167" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -6186,7 +6568,7 @@
         <v>500</v>
       </c>
       <c r="E168" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -6203,7 +6585,7 @@
         <v>504</v>
       </c>
       <c r="E169" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -6220,7 +6602,7 @@
         <v>508</v>
       </c>
       <c r="E170" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -6237,7 +6619,7 @@
         <v>104</v>
       </c>
       <c r="E171" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -6254,7 +6636,7 @@
         <v>516</v>
       </c>
       <c r="E172" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -6271,7 +6653,7 @@
         <v>520</v>
       </c>
       <c r="E173" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -6288,7 +6670,7 @@
         <v>524</v>
       </c>
       <c r="E174" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -6305,41 +6687,41 @@
         <v>528</v>
       </c>
       <c r="E175" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="176" spans="1:5">
       <c r="A176" t="s">
+        <v>753</v>
+      </c>
+      <c r="B176" s="1" t="s">
         <v>754</v>
       </c>
-      <c r="B176" s="1" t="s">
+      <c r="C176" s="1" t="s">
         <v>755</v>
-      </c>
-      <c r="C176" s="1" t="s">
-        <v>756</v>
       </c>
       <c r="D176" s="4">
         <v>530</v>
       </c>
       <c r="E176" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="177" spans="1:5">
       <c r="A177" t="s">
+        <v>803</v>
+      </c>
+      <c r="B177" s="1" t="s">
         <v>804</v>
       </c>
-      <c r="B177" s="1" t="s">
+      <c r="C177" s="1" t="s">
         <v>805</v>
-      </c>
-      <c r="C177" s="1" t="s">
-        <v>806</v>
       </c>
       <c r="D177" s="4">
         <v>536</v>
       </c>
       <c r="E177" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -6356,22 +6738,22 @@
         <v>540</v>
       </c>
       <c r="E178" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="179" spans="1:5">
       <c r="A179" t="s">
+        <v>797</v>
+      </c>
+      <c r="B179" s="1" t="s">
         <v>798</v>
       </c>
-      <c r="B179" s="1" t="s">
+      <c r="C179" s="1" t="s">
         <v>799</v>
-      </c>
-      <c r="C179" s="1" t="s">
-        <v>800</v>
       </c>
       <c r="D179" s="4"/>
       <c r="E179" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -6388,7 +6770,7 @@
         <v>554</v>
       </c>
       <c r="E180" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -6405,7 +6787,7 @@
         <v>558</v>
       </c>
       <c r="E181" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -6422,7 +6804,7 @@
         <v>562</v>
       </c>
       <c r="E182" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -6439,7 +6821,7 @@
         <v>566</v>
       </c>
       <c r="E183" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -6456,7 +6838,7 @@
         <v>570</v>
       </c>
       <c r="E184" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -6473,7 +6855,7 @@
         <v>574</v>
       </c>
       <c r="E185" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -6490,7 +6872,7 @@
         <v>580</v>
       </c>
       <c r="E186" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -6507,7 +6889,7 @@
         <v>578</v>
       </c>
       <c r="E187" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -6524,24 +6906,24 @@
         <v>512</v>
       </c>
       <c r="E188" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="189" spans="1:5">
       <c r="A189" t="s">
+        <v>806</v>
+      </c>
+      <c r="B189" s="1" t="s">
         <v>807</v>
       </c>
-      <c r="B189" s="1" t="s">
+      <c r="C189" s="1" t="s">
         <v>808</v>
-      </c>
-      <c r="C189" s="1" t="s">
-        <v>809</v>
       </c>
       <c r="D189" s="4">
         <v>582</v>
       </c>
       <c r="E189" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -6558,7 +6940,7 @@
         <v>586</v>
       </c>
       <c r="E190" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -6575,7 +6957,7 @@
         <v>585</v>
       </c>
       <c r="E191" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -6592,7 +6974,7 @@
         <v>275</v>
       </c>
       <c r="E192" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -6609,22 +6991,22 @@
         <v>591</v>
       </c>
       <c r="E193" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="194" spans="1:5">
       <c r="A194" t="s">
+        <v>812</v>
+      </c>
+      <c r="B194" s="1" t="s">
         <v>813</v>
       </c>
-      <c r="B194" s="1" t="s">
+      <c r="C194" s="1" t="s">
         <v>814</v>
-      </c>
-      <c r="C194" s="1" t="s">
-        <v>815</v>
       </c>
       <c r="D194" s="4"/>
       <c r="E194" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -6641,7 +7023,7 @@
         <v>598</v>
       </c>
       <c r="E195" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -6658,7 +7040,7 @@
         <v>600</v>
       </c>
       <c r="E196" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -6675,7 +7057,7 @@
         <v>604</v>
       </c>
       <c r="E197" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -6692,7 +7074,7 @@
         <v>608</v>
       </c>
       <c r="E198" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -6709,7 +7091,7 @@
         <v>612</v>
       </c>
       <c r="E199" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -6726,7 +7108,7 @@
         <v>616</v>
       </c>
       <c r="E200" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -6743,7 +7125,7 @@
         <v>620</v>
       </c>
       <c r="E201" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -6760,7 +7142,7 @@
         <v>630</v>
       </c>
       <c r="E202" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -6777,7 +7159,7 @@
         <v>634</v>
       </c>
       <c r="E203" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -6794,7 +7176,7 @@
         <v>638</v>
       </c>
       <c r="E204" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -6811,7 +7193,7 @@
         <v>642</v>
       </c>
       <c r="E205" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -6828,7 +7210,7 @@
         <v>643</v>
       </c>
       <c r="E206" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -6845,7 +7227,7 @@
         <v>646</v>
       </c>
       <c r="E207" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -6862,7 +7244,7 @@
         <v>652</v>
       </c>
       <c r="E208" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -6879,7 +7261,7 @@
         <v>654</v>
       </c>
       <c r="E209" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -6896,7 +7278,7 @@
         <v>659</v>
       </c>
       <c r="E210" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -6913,7 +7295,7 @@
         <v>662</v>
       </c>
       <c r="E211" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -6930,7 +7312,7 @@
         <v>663</v>
       </c>
       <c r="E212" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -6947,7 +7329,7 @@
         <v>666</v>
       </c>
       <c r="E213" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -6964,7 +7346,7 @@
         <v>670</v>
       </c>
       <c r="E214" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -6981,7 +7363,7 @@
         <v>882</v>
       </c>
       <c r="E215" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -6998,7 +7380,7 @@
         <v>674</v>
       </c>
       <c r="E216" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -7015,7 +7397,7 @@
         <v>678</v>
       </c>
       <c r="E217" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -7032,7 +7414,7 @@
         <v>682</v>
       </c>
       <c r="E218" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -7049,7 +7431,7 @@
         <v>686</v>
       </c>
       <c r="E219" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -7066,24 +7448,24 @@
         <v>688</v>
       </c>
       <c r="E220" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="221" spans="1:5">
       <c r="A221" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="C221" s="1" t="s">
         <v>767</v>
-      </c>
-      <c r="B221" s="1" t="s">
-        <v>765</v>
-      </c>
-      <c r="C221" s="1" t="s">
-        <v>768</v>
       </c>
       <c r="D221" s="4">
         <v>891</v>
       </c>
       <c r="E221" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -7100,7 +7482,7 @@
         <v>690</v>
       </c>
       <c r="E222" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -7117,22 +7499,22 @@
         <v>694</v>
       </c>
       <c r="E223" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="224" spans="1:5">
       <c r="A224" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B224" s="1" t="s">
         <v>608</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D224" s="4"/>
       <c r="E224" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -7149,7 +7531,7 @@
         <v>702</v>
       </c>
       <c r="E225" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -7166,7 +7548,7 @@
         <v>534</v>
       </c>
       <c r="E226" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -7183,7 +7565,7 @@
         <v>703</v>
       </c>
       <c r="E227" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -7200,7 +7582,7 @@
         <v>705</v>
       </c>
       <c r="E228" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -7217,7 +7599,7 @@
         <v>90</v>
       </c>
       <c r="E229" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -7234,22 +7616,22 @@
         <v>706</v>
       </c>
       <c r="E230" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="231" spans="1:5">
       <c r="A231" t="s">
+        <v>815</v>
+      </c>
+      <c r="B231" s="1" t="s">
         <v>816</v>
       </c>
-      <c r="B231" s="1" t="s">
+      <c r="C231" s="1" t="s">
         <v>817</v>
-      </c>
-      <c r="C231" s="1" t="s">
-        <v>818</v>
       </c>
       <c r="D231" s="4"/>
       <c r="E231" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -7266,7 +7648,7 @@
         <v>710</v>
       </c>
       <c r="E232" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -7283,7 +7665,7 @@
         <v>239</v>
       </c>
       <c r="E233" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -7300,7 +7682,7 @@
         <v>728</v>
       </c>
       <c r="E234" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -7317,7 +7699,7 @@
         <v>724</v>
       </c>
       <c r="E235" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -7334,7 +7716,7 @@
         <v>144</v>
       </c>
       <c r="E236" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -7351,7 +7733,7 @@
         <v>729</v>
       </c>
       <c r="E237" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -7368,7 +7750,7 @@
         <v>740</v>
       </c>
       <c r="E238" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -7385,7 +7767,7 @@
         <v>744</v>
       </c>
       <c r="E239" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -7402,7 +7784,7 @@
         <v>748</v>
       </c>
       <c r="E240" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -7419,7 +7801,7 @@
         <v>752</v>
       </c>
       <c r="E241" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -7436,7 +7818,7 @@
         <v>756</v>
       </c>
       <c r="E242" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -7453,7 +7835,7 @@
         <v>760</v>
       </c>
       <c r="E243" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -7470,7 +7852,7 @@
         <v>158</v>
       </c>
       <c r="E244" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -7487,681 +7869,666 @@
         <v>762</v>
       </c>
       <c r="E245" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="246" spans="1:5">
       <c r="A246" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="B246" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="B246" s="1" t="s">
+      <c r="C246" s="1" t="s">
         <v>660</v>
-      </c>
-      <c r="C246" s="1" t="s">
-        <v>661</v>
       </c>
       <c r="D246" s="4">
         <v>834</v>
       </c>
       <c r="E246" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="247" spans="1:5">
       <c r="A247" s="1" t="s">
-        <v>848</v>
+        <v>661</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="D247" s="4">
-        <v>834</v>
+        <v>764</v>
       </c>
       <c r="E247" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="248" spans="1:5">
       <c r="A248" s="1" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="D248" s="4">
-        <v>764</v>
+        <v>626</v>
       </c>
       <c r="E248" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="249" spans="1:5">
       <c r="A249" s="1" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="D249" s="4">
-        <v>626</v>
+        <v>768</v>
       </c>
       <c r="E249" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="250" spans="1:5">
       <c r="A250" s="1" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="D250" s="4">
-        <v>768</v>
+        <v>772</v>
       </c>
       <c r="E250" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="251" spans="1:5">
       <c r="A251" s="1" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="D251" s="4">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="E251" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="252" spans="1:5">
       <c r="A252" s="1" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="D252" s="4">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="E252" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="253" spans="1:5">
       <c r="A253" s="1" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="D253" s="4">
-        <v>780</v>
+        <v>788</v>
       </c>
       <c r="E253" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="254" spans="1:5">
       <c r="A254" s="1" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="D254" s="4">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="E254" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="255" spans="1:5">
       <c r="A255" s="1" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="D255" s="4">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="E255" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="256" spans="1:5">
       <c r="A256" s="1" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="D256" s="4">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="E256" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="257" spans="1:5">
       <c r="A257" s="1" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="D257" s="4">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="E257" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="258" spans="1:5">
       <c r="A258" s="1" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="D258" s="4">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="E258" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="259" spans="1:5">
       <c r="A259" s="1" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="D259" s="4">
-        <v>800</v>
+        <v>804</v>
       </c>
       <c r="E259" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="260" spans="1:5">
       <c r="A260" s="1" t="s">
-        <v>698</v>
+        <v>2</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>699</v>
+        <v>3</v>
       </c>
       <c r="C260" s="1" t="s">
         <v>700</v>
       </c>
       <c r="D260" s="4">
-        <v>804</v>
+        <v>784</v>
       </c>
       <c r="E260" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="261" spans="1:5">
       <c r="A261" s="1" t="s">
-        <v>2</v>
+        <v>701</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>3</v>
+        <v>702</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="D261" s="4">
-        <v>784</v>
+        <v>826</v>
       </c>
       <c r="E261" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="262" spans="1:5">
       <c r="A262" s="1" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="D262" s="4">
-        <v>826</v>
+        <v>581</v>
       </c>
       <c r="E262" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="263" spans="1:5">
-      <c r="A263" s="1" t="s">
-        <v>705</v>
+      <c r="A263" t="s">
+        <v>809</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>706</v>
+        <v>810</v>
       </c>
       <c r="C263" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="D263" s="4">
+        <v>849</v>
+      </c>
+      <c r="E263" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5">
+      <c r="A264" s="1" t="s">
         <v>707</v>
       </c>
-      <c r="D263" s="4">
-        <v>581</v>
-      </c>
-      <c r="E263" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="264" spans="1:5">
-      <c r="A264" t="s">
+      <c r="B264" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="D264" s="4">
+        <v>840</v>
+      </c>
+      <c r="E264" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5">
+      <c r="A265" t="s">
+        <v>788</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="D265" s="4">
+        <v>854</v>
+      </c>
+      <c r="E265" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5">
+      <c r="A266" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="D266" s="4">
+        <v>858</v>
+      </c>
+      <c r="E266" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5">
+      <c r="A267" t="s">
+        <v>820</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="D267" s="4">
         <v>810</v>
       </c>
-      <c r="B264" s="1" t="s">
-        <v>811</v>
-      </c>
-      <c r="C264" s="1" t="s">
-        <v>812</v>
-      </c>
-      <c r="D264" s="4">
-        <v>849</v>
-      </c>
-      <c r="E264" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="265" spans="1:5">
-      <c r="A265" s="1" t="s">
-        <v>708</v>
-      </c>
-      <c r="B265" s="1" t="s">
-        <v>709</v>
-      </c>
-      <c r="C265" s="1" t="s">
-        <v>710</v>
-      </c>
-      <c r="D265" s="4">
-        <v>840</v>
-      </c>
-      <c r="E265" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="266" spans="1:5">
-      <c r="A266" t="s">
-        <v>789</v>
-      </c>
-      <c r="B266" s="1" t="s">
-        <v>790</v>
-      </c>
-      <c r="C266" s="1" t="s">
-        <v>791</v>
-      </c>
-      <c r="D266" s="4">
-        <v>854</v>
-      </c>
-      <c r="E266" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="267" spans="1:5">
-      <c r="A267" s="1" t="s">
-        <v>711</v>
-      </c>
-      <c r="B267" s="1" t="s">
-        <v>712</v>
-      </c>
-      <c r="C267" s="1" t="s">
+      <c r="E267" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5">
+      <c r="A268" s="1" t="s">
         <v>713</v>
       </c>
-      <c r="D267" s="4">
-        <v>858</v>
-      </c>
-      <c r="E267" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="268" spans="1:5">
-      <c r="A268" t="s">
-        <v>821</v>
-      </c>
       <c r="B268" s="1" t="s">
-        <v>822</v>
+        <v>714</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>823</v>
+        <v>715</v>
       </c>
       <c r="D268" s="4">
-        <v>810</v>
+        <v>860</v>
       </c>
       <c r="E268" t="s">
-        <v>784</v>
+        <v>842</v>
       </c>
     </row>
     <row r="269" spans="1:5">
       <c r="A269" s="1" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="D269" s="4">
-        <v>860</v>
+        <v>548</v>
       </c>
       <c r="E269" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="270" spans="1:5">
       <c r="A270" s="1" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="D270" s="4">
-        <v>548</v>
+        <v>862</v>
       </c>
       <c r="E270" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="271" spans="1:5">
       <c r="A271" s="1" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="D271" s="4">
-        <v>862</v>
+        <v>704</v>
       </c>
       <c r="E271" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="272" spans="1:5">
-      <c r="A272" s="1" t="s">
-        <v>723</v>
+      <c r="A272" t="s">
+        <v>826</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>724</v>
+        <v>827</v>
       </c>
       <c r="C272" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="D272" s="4"/>
+      <c r="E272" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5">
+      <c r="A273" s="1" t="s">
         <v>725</v>
       </c>
-      <c r="D272" s="4">
-        <v>704</v>
-      </c>
-      <c r="E272" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="273" spans="1:5">
-      <c r="A273" t="s">
-        <v>827</v>
-      </c>
       <c r="B273" s="1" t="s">
-        <v>828</v>
+        <v>726</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>829</v>
-      </c>
-      <c r="D273" s="4"/>
+        <v>727</v>
+      </c>
+      <c r="D273" s="4">
+        <v>92</v>
+      </c>
       <c r="E273" t="s">
-        <v>774</v>
+        <v>842</v>
       </c>
     </row>
     <row r="274" spans="1:5">
       <c r="A274" s="1" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="D274" s="4">
-        <v>92</v>
+        <v>850</v>
       </c>
       <c r="E274" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="275" spans="1:5">
-      <c r="A275" s="1" t="s">
-        <v>729</v>
+      <c r="A275" t="s">
+        <v>829</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>730</v>
+        <v>830</v>
       </c>
       <c r="C275" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="D275" s="4">
+        <v>872</v>
+      </c>
+      <c r="E275" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5">
+      <c r="A276" s="1" t="s">
         <v>731</v>
       </c>
-      <c r="D275" s="4">
-        <v>850</v>
-      </c>
-      <c r="E275" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="276" spans="1:5">
-      <c r="A276" t="s">
-        <v>830</v>
-      </c>
       <c r="B276" s="1" t="s">
-        <v>831</v>
+        <v>732</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>832</v>
+        <v>733</v>
       </c>
       <c r="D276" s="4">
-        <v>872</v>
+        <v>876</v>
       </c>
       <c r="E276" t="s">
-        <v>774</v>
+        <v>842</v>
       </c>
     </row>
     <row r="277" spans="1:5">
       <c r="A277" s="1" t="s">
-        <v>732</v>
+        <v>750</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>733</v>
+        <v>843</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>734</v>
-      </c>
-      <c r="D277" s="4">
-        <v>876</v>
-      </c>
+        <v>929</v>
+      </c>
+      <c r="D277" s="4"/>
       <c r="E277" t="s">
-        <v>843</v>
+        <v>885</v>
       </c>
     </row>
     <row r="278" spans="1:5">
       <c r="A278" s="1" t="s">
-        <v>751</v>
+        <v>848</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>844</v>
-      </c>
-      <c r="C278" s="1"/>
-      <c r="D278" s="4"/>
+        <v>734</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="D278" s="4">
+        <v>732</v>
+      </c>
       <c r="E278" t="s">
-        <v>888</v>
+        <v>842</v>
       </c>
     </row>
     <row r="279" spans="1:5">
       <c r="A279" s="1" t="s">
-        <v>849</v>
+        <v>736</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="D279" s="4">
-        <v>732</v>
+        <v>887</v>
       </c>
       <c r="E279" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="280" spans="1:5">
-      <c r="A280" s="1" t="s">
-        <v>737</v>
+      <c r="A280" t="s">
+        <v>832</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>738</v>
+        <v>833</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>739</v>
+        <v>834</v>
       </c>
       <c r="D280" s="4">
-        <v>887</v>
+        <v>720</v>
       </c>
       <c r="E280" t="s">
-        <v>843</v>
+        <v>773</v>
       </c>
     </row>
     <row r="281" spans="1:5">
       <c r="A281" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="D281" s="4">
-        <v>720</v>
+        <v>891</v>
       </c>
       <c r="E281" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="282" spans="1:5">
-      <c r="A282" t="s">
-        <v>836</v>
+      <c r="A282" s="1" t="s">
+        <v>838</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="D282" s="4">
-        <v>891</v>
+        <v>180</v>
       </c>
       <c r="E282" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="283" spans="1:5">
       <c r="A283" s="1" t="s">
-        <v>839</v>
+        <v>739</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>840</v>
+        <v>740</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>841</v>
+        <v>741</v>
       </c>
       <c r="D283" s="4">
-        <v>180</v>
+        <v>894</v>
       </c>
       <c r="E283" t="s">
-        <v>773</v>
+        <v>842</v>
       </c>
     </row>
     <row r="284" spans="1:5">
       <c r="A284" s="1" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="D284" s="4">
-        <v>894</v>
+        <v>716</v>
       </c>
       <c r="E284" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="285" spans="1:5">
-      <c r="A285" s="1" t="s">
-        <v>743</v>
-      </c>
-      <c r="B285" s="1" t="s">
-        <v>744</v>
-      </c>
-      <c r="C285" s="1" t="s">
-        <v>745</v>
-      </c>
-      <c r="D285" s="4">
-        <v>716</v>
-      </c>
-      <c r="E285" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
   </sheetData>
@@ -8177,696 +8544,962 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B85"/>
+  <dimension ref="A1:C86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="24.5" customWidth="1"/>
-    <col min="2" max="2" width="39.5" customWidth="1"/>
+    <col min="1" max="2" width="24.5" customWidth="1"/>
+    <col min="3" max="3" width="39.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="45">
+        <v>141</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="45">
       <c r="A3" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="30">
+        <v>151</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30">
       <c r="A4" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="30">
+        <v>152</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30">
       <c r="A5" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="45">
+        <v>757</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="45">
       <c r="A6" s="1" t="s">
         <v>158</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="30">
+        <v>159</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30">
       <c r="A7" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="30">
+      <c r="C7" s="1" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30">
       <c r="A8" s="1" t="s">
         <v>171</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="30">
+        <v>172</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="30">
       <c r="A9" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="75">
+        <v>173</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="75">
       <c r="A10" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>180</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>183</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="105">
+        <v>184</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="120">
       <c r="A12" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>185</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="30">
       <c r="A13" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="30">
+        <v>186</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="30">
       <c r="A14" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="30">
+        <v>187</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="30">
       <c r="A15" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="30">
+        <v>189</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="30">
       <c r="A16" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="30">
+        <v>196</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="30">
       <c r="A17" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="75">
+        <v>200</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="90">
       <c r="A18" s="1" t="s">
         <v>222</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="30">
+        <v>223</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="30">
       <c r="A19" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>226</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>785</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="45">
+      <c r="C20" s="1" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="45">
       <c r="A21" s="1" t="s">
         <v>243</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>244</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
         <v>249</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>250</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>776</v>
       </c>
-      <c r="B23" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="60">
+      <c r="C23" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="75">
       <c r="A24" s="1" t="s">
         <v>295</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>296</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
         <v>298</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="30">
+        <v>299</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="30">
       <c r="A26" s="1" t="s">
         <v>319</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="60">
+        <v>320</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="60">
       <c r="A27" s="1" t="s">
         <v>358</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="30">
+        <v>359</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="30">
       <c r="A28" s="1" t="s">
         <v>361</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="45">
+        <v>362</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="45">
       <c r="A29" s="1" t="s">
         <v>370</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="45">
+        <v>371</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="45">
       <c r="A30" s="1" t="s">
         <v>400</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="30">
+        <v>401</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="30">
       <c r="A31" s="1" t="s">
         <v>421</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="60">
+        <v>422</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="60">
       <c r="A32" s="1" t="s">
         <v>439</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="30">
+        <v>440</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="30">
       <c r="A33" s="1" t="s">
         <v>442</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="30">
+        <v>443</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="30">
       <c r="A34" s="1" t="s">
         <v>475</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>476</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>755</v>
       </c>
-      <c r="B35" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+      <c r="C35" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>805</v>
       </c>
-      <c r="B36" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+      <c r="C36" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
         <v>487</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="30">
+        <v>488</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="30">
       <c r="A38" s="1" t="s">
         <v>499</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>500</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>808</v>
       </c>
-      <c r="B39" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="30">
+      <c r="C39" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="30">
       <c r="A40" s="1" t="s">
         <v>514</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>515</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>814</v>
       </c>
-      <c r="B41" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+      <c r="C41" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
         <v>529</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="30">
+        <v>530</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="30">
       <c r="A43" s="1" t="s">
         <v>553</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>554</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="60">
+        <v>558</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="120">
       <c r="A45" s="1" t="s">
         <v>560</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="30">
+        <v>561</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="30">
       <c r="A46" s="1" t="s">
         <v>563</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>564</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47" s="1" t="s">
         <v>566</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>567</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48" s="1" t="s">
         <v>569</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="30">
+        <v>570</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="30">
       <c r="A49" s="1" t="s">
         <v>572</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="60">
+        <v>573</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="60">
       <c r="A50" s="1" t="s">
         <v>575</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="30">
+        <v>576</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="45">
       <c r="A51" s="1" t="s">
         <v>584</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="30">
+        <v>585</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="30">
       <c r="A52" s="1" t="s">
         <v>605</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="30">
+        <v>606</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="30">
       <c r="A53" s="1" t="s">
         <v>614</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="60">
+        <v>615</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="60">
       <c r="A54" s="1" t="s">
         <v>623</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>624</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" s="1" t="s">
         <v>635</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="30">
+        <v>636</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="30">
       <c r="A56" s="1" t="s">
         <v>651</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="30">
+        <v>652</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="30">
       <c r="A57" s="1" t="s">
         <v>654</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="45">
+        <v>655</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="45">
       <c r="A58" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="30">
+      <c r="C58" s="1" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="30">
       <c r="A59" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>690</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="30">
+      <c r="C59" s="1" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="30">
       <c r="A60" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B60" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="60">
+      <c r="A61" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="45">
+      <c r="A62" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="C63" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="45">
+      <c r="A64" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="90">
+      <c r="A65" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="C66" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="60">
-      <c r="A61" s="1" t="s">
-        <v>703</v>
-      </c>
-      <c r="B61" s="1" t="s">
+    <row r="67" spans="1:3" ht="60">
+      <c r="A67" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="C69" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="C70" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="75">
+      <c r="A72" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>831</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="30">
+      <c r="A73" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>901</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="45">
-      <c r="A62" s="1" t="s">
-        <v>706</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="1" t="s">
-        <v>811</v>
-      </c>
-      <c r="B63" t="s">
+    <row r="74" spans="1:3">
+      <c r="A74" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="C74" t="s">
         <v>902</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="45">
-      <c r="A64" s="1" t="s">
-        <v>709</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="90">
-      <c r="A65" s="1" t="s">
-        <v>730</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="1" t="s">
-        <v>822</v>
-      </c>
-      <c r="B66" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="60">
-      <c r="A67" s="1" t="s">
-        <v>721</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="1" t="s">
-        <v>724</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="1" t="s">
-        <v>828</v>
-      </c>
-      <c r="B69" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="1" t="s">
-        <v>831</v>
-      </c>
-      <c r="B70" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="1" t="s">
-        <v>733</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="75">
-      <c r="A72" s="1" t="s">
-        <v>844</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="30">
-      <c r="A73" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="1" t="s">
-        <v>834</v>
-      </c>
-      <c r="B74" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:3">
       <c r="A75" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B75" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+      <c r="B75" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C75" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
       <c r="A76" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B76" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+      <c r="B76" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C76" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
       <c r="A77" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="B77" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+      <c r="B77" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C77" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
       <c r="A78" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="B78" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+      <c r="B78" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C78" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
       <c r="A79" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="B79" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+      <c r="B79" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="C79" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
       <c r="A80" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="B80" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+      <c r="B80" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="C80" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
       <c r="A81" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="B81" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+      <c r="B81" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="C81" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
       <c r="A82" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="B82" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+      <c r="B82" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="C82" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
       <c r="A83" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="B83" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+      <c r="B83" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="C83" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
       <c r="A84" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="B84" s="1" t="s">
         <v>718</v>
       </c>
-      <c r="B84" t="s">
+      <c r="C84" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="C85" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
-      <c r="A85" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="B85" t="s">
-        <v>932</v>
+    <row r="86" spans="1:3">
+      <c r="A86" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C86" t="s">
+        <v>926</v>
       </c>
     </row>
   </sheetData>

--- a/source_data/ISO_Countries/Countries_and_ISOs_April_21_2015.xlsx
+++ b/source_data/ISO_Countries/Countries_and_ISOs_April_21_2015.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="0" windowWidth="14900" windowHeight="15900" tabRatio="500"/>
+    <workbookView xWindow="40" yWindow="0" windowWidth="14900" windowHeight="15900" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Countries_and_ISOs_April_21_201" sheetId="1" r:id="rId1"/>
@@ -2794,9 +2794,6 @@
     <t>Congo (the Democratic Republic of the);Congo (the Republic of the);The Democratic Republic of the Congo;The Republic of the Congo;Democratic Republic of the Congo;Congo, Democratic Republic of;Congo—Republic of the;Republic of the Congo;CONGO, DEMOCRATIC REPUBLIC OF THE</t>
   </si>
   <si>
-    <t>Congo (the);The Congo;Congo,;Congo;CONGO, REPUBLIC OF THE</t>
-  </si>
-  <si>
     <t>Heard Island and McDonald Islands;The Heard Island and McDonald Islands;Heard Island and McDonald Islands (the);Heard Island;McDonald Island;HEARD AND MCDONALD ISLANDS</t>
   </si>
   <si>
@@ -2821,9 +2818,6 @@
     <t>Côte d'Ivoire;C\xf4te d\u2019Ivoire;Côte d’Ivoire;Cote d'Ivoire;</t>
   </si>
   <si>
-    <t>Saint Helena, Ascension and Tristan da Cunha;Saint Helena;St Helena;St. Helena;Saint Helena, Ascension, and Tristan da Cunha (formerly called Saint Helena);Saint Helena, Ascension and Tristan da Cunha (formerly known as Saint Helena);Saint Helena, Ascension and Tristan da Cunha (formerly called Saint Helena)</t>
-  </si>
-  <si>
     <t>Saint Kitts and Nevis;St. Kitts and Nevis;St Kitts and Nevis;St Kitts &amp; Nevis;Saint Kitts</t>
   </si>
   <si>
@@ -2834,6 +2828,12 @@
   </si>
   <si>
     <t>KVR</t>
+  </si>
+  <si>
+    <t>Congo (the);The Congo;Congo,;Congo;CONGO, REPUBLIC OF THE; Congo, Republic of</t>
+  </si>
+  <si>
+    <t>Saint Helena, Ascension and Tristan da Cunha;Saint Helena;St Helena;St. Helena;Saint Helena, Ascension, and Tristan da Cunha (formerly called Saint Helena);Saint Helena, Ascension and Tristan da Cunha (formerly known as Saint Helena);Saint Helena, Ascension and Tristan da Cunha (formerly called Saint Helena);SAINT HELENA,  ASCENSION AND TRISTAN DA CUNHA</t>
   </si>
 </sst>
 </file>
@@ -3719,7 +3719,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E284"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C138" sqref="C138"/>
     </sheetView>
   </sheetViews>
@@ -6005,7 +6005,7 @@
         <v>845</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="D135" s="4"/>
       <c r="E135" t="s">
@@ -6054,7 +6054,7 @@
         <v>846</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="D138" s="4"/>
       <c r="E138" t="s">
@@ -8405,7 +8405,7 @@
         <v>843</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="D277" s="4"/>
       <c r="E277" t="s">
@@ -8546,8 +8546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C86"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8561,7 +8561,7 @@
         <v>747</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>30</v>
@@ -8619,7 +8619,7 @@
         <v>159</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="30">
@@ -8696,7 +8696,7 @@
         <v>186</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>924</v>
+        <v>936</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="30">
@@ -8718,7 +8718,7 @@
         <v>189</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="30">
@@ -8751,7 +8751,7 @@
         <v>223</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="30">
@@ -8817,7 +8817,7 @@
         <v>296</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -9040,7 +9040,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="120">
+    <row r="45" spans="1:3" ht="135">
       <c r="A45" s="1" t="s">
         <v>560</v>
       </c>
@@ -9048,7 +9048,7 @@
         <v>561</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>933</v>
+        <v>937</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="30">
@@ -9059,7 +9059,7 @@
         <v>564</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -9114,7 +9114,7 @@
         <v>585</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="30">
@@ -9191,7 +9191,7 @@
         <v>660</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="30">
@@ -9499,7 +9499,7 @@
         <v>455</v>
       </c>
       <c r="C86" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
   </sheetData>

--- a/source_data/ISO_Countries/Countries_and_ISOs_April_21_2015.xlsx
+++ b/source_data/ISO_Countries/Countries_and_ISOs_April_21_2015.xlsx
@@ -2782,18 +2782,12 @@
     <t>Guinea Bissa;Guinea Bissau</t>
   </si>
   <si>
-    <t>Cocos (Keeling) Islands (the); The Cocos (Keeling) Islands; The Cocos Keeling; Islands;Cocos Islands and Keeling Islands;The Cocos Islands and Keeling Islands;Cocos Islands;Keeling Islands;Cocos (Keeling) Islands</t>
-  </si>
-  <si>
     <t>Saint Vincent and the Grenadines;St. Vincent and the Grenadines;St Vincent and Grenadines;St Vincent and the Grenadines;Saint Vincent</t>
   </si>
   <si>
     <t>Trinidad &amp; Tobago</t>
   </si>
   <si>
-    <t>Congo (the Democratic Republic of the);Congo (the Republic of the);The Democratic Republic of the Congo;The Republic of the Congo;Democratic Republic of the Congo;Congo, Democratic Republic of;Congo—Republic of the;Republic of the Congo;CONGO, DEMOCRATIC REPUBLIC OF THE</t>
-  </si>
-  <si>
     <t>Heard Island and McDonald Islands;The Heard Island and McDonald Islands;Heard Island and McDonald Islands (the);Heard Island;McDonald Island;HEARD AND MCDONALD ISLANDS</t>
   </si>
   <si>
@@ -2834,6 +2828,12 @@
   </si>
   <si>
     <t>Saint Helena, Ascension and Tristan da Cunha;Saint Helena;St Helena;St. Helena;Saint Helena, Ascension, and Tristan da Cunha (formerly called Saint Helena);Saint Helena, Ascension and Tristan da Cunha (formerly known as Saint Helena);Saint Helena, Ascension and Tristan da Cunha (formerly called Saint Helena);SAINT HELENA,  ASCENSION AND TRISTAN DA CUNHA</t>
+  </si>
+  <si>
+    <t>Cocos (Keeling) Islands (the); The Cocos (Keeling) Islands; The Cocos Keeling; Islands;Cocos Islands and Keeling Islands;The Cocos Islands and Keeling Islands;Cocos Islands;Keeling Islands;Cocos (Keeling) Islands;COCOS (KEELING) ISLAND</t>
+  </si>
+  <si>
+    <t>Congo (the Democratic Republic of the);Congo (the Republic of the);The Democratic Republic of the Congo;The Republic of the Congo;Democratic Republic of the Congo;Congo, Democratic Republic of;Congo—Republic of the;Republic of the Congo;CONGO, DEMOCRATIC REPUBLIC OF THE;CONGO, DEM REP OF</t>
   </si>
 </sst>
 </file>
@@ -6005,7 +6005,7 @@
         <v>845</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="D135" s="4"/>
       <c r="E135" t="s">
@@ -6054,7 +6054,7 @@
         <v>846</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="D138" s="4"/>
       <c r="E138" t="s">
@@ -8405,7 +8405,7 @@
         <v>843</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="D277" s="4"/>
       <c r="E277" t="s">
@@ -8546,8 +8546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8561,7 +8561,7 @@
         <v>747</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>30</v>
@@ -8619,7 +8619,7 @@
         <v>159</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="30">
@@ -8655,7 +8655,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="75">
+    <row r="10" spans="1:3" ht="90">
       <c r="A10" s="1" t="s">
         <v>78</v>
       </c>
@@ -8663,7 +8663,7 @@
         <v>180</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>920</v>
+        <v>936</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -8685,7 +8685,7 @@
         <v>185</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>923</v>
+        <v>937</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="30">
@@ -8696,7 +8696,7 @@
         <v>186</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="30">
@@ -8718,7 +8718,7 @@
         <v>189</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="30">
@@ -8751,7 +8751,7 @@
         <v>223</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="30">
@@ -8817,7 +8817,7 @@
         <v>296</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -9048,7 +9048,7 @@
         <v>561</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="30">
@@ -9059,7 +9059,7 @@
         <v>564</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -9103,7 +9103,7 @@
         <v>576</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="45">
@@ -9114,7 +9114,7 @@
         <v>585</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="30">
@@ -9191,7 +9191,7 @@
         <v>660</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="30">
@@ -9488,7 +9488,7 @@
         <v>678</v>
       </c>
       <c r="C85" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -9499,7 +9499,7 @@
         <v>455</v>
       </c>
       <c r="C86" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
     </row>
   </sheetData>
